--- a/опт и Краснодар/2024/11,24/20,11,24 ПОКОМ ЗПФ Сочи/дв 21,11,24 счрсч пок зпф от филиала (согласовал Химич).xlsx
+++ b/опт и Краснодар/2024/11,24/20,11,24 ПОКОМ ЗПФ Сочи/дв 21,11,24 счрсч пок зпф от филиала (согласовал Химич).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\20,11,24 ПОКОМ ЗПФ Сочи\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\опт и Краснодар\2024\11,24\20,11,24 ПОКОМ ЗПФ Сочи\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C0FEE25-D4A7-4FF7-973A-8569FE8B4C4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D753A0C-0777-46F6-9AE3-B64B877B3A81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9431,10 +9431,10 @@
   <dimension ref="A1:BB491"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="F59" sqref="F59"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
